--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433094.9807634793</v>
+        <v>437136.318553314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1065068.56629979</v>
+        <v>1065068.566299791</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17832129.82984319</v>
+        <v>17832129.82984318</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.0428859370281</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.955778393889</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>41.23644178220835</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
@@ -1139,10 +1139,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>89.29749682216328</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>147.4160444377084</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.3503553145339</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>29.80396480366361</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>13.46550985000068</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1622,10 +1622,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.237263525796244</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.5897011231245</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>69.04376635727375</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>13.46550985000068</v>
       </c>
       <c r="J16" t="n">
-        <v>21.57990476584692</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>268.0607811825788</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>8.960332327964021</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>209.0060797670739</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.2133755837552</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>155.5032166200848</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>137.1286381567953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7.884372849250043</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>20.75911149906618</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F23" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>64.24901998152981</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>111.7110515884505</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.46550985000068</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>243.2386572690349</v>
+        <v>268.0607811825788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="X26" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.2681884137393</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>132.5855249231853</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>112.0647721217663</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,64 +2710,64 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="F29" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>38.19053515138887</v>
-      </c>
-      <c r="I29" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>95.54722844714809</v>
+        <v>34.62859982051677</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5.363104630273019</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>63.01265906493305</v>
+        <v>38.19053515138887</v>
       </c>
       <c r="H32" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I32" t="n">
         <v>205.0481221176458</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>89.22586506507209</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,10 +3123,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>191.9197445172876</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>29.71014592494663</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W35" t="n">
-        <v>243.2386572690346</v>
+        <v>133.3573322408905</v>
       </c>
       <c r="X35" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>16.68574431245256</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I36" t="n">
         <v>86.80307722268741</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>190.3565654106733</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.884372849250028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>162.2121762597333</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="I38" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>18.34521510407903</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>237.0045165858443</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>7.884372849250028</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>29.71014592494663</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>103.1381403365018</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>66.92515798176981</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6773952840984648</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,20 +3974,20 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>230.8201287511324</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>71.2601039581627</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>29.80396480366361</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>195.5155797178169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>94.25736106477127</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,13 +4416,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X3" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4522,16 +4522,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4562,7 +4562,7 @@
         <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4607,7 +4607,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
         <v>720.6083788665362</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.5415416409353</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C6" t="n">
-        <v>170.0885123598083</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="D6" t="n">
-        <v>170.0885123598083</v>
+        <v>264.602879342657</v>
       </c>
       <c r="E6" t="n">
-        <v>170.0885123598083</v>
+        <v>264.602879342657</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>264.602879342657</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4656,10 +4656,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4683,13 +4683,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>512.7568786610034</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4747,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4787,7 +4787,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>873.8576637710773</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>873.8576637710773</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>873.8576637710773</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>873.8576637710773</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>638.7055555393347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>815.1520601190116</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>607.3917613540577</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5042,19 +5042,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>140.0259473578926</v>
+        <v>114.8172399341339</v>
       </c>
       <c r="L11" t="n">
-        <v>342.0971815553111</v>
+        <v>316.8884741315524</v>
       </c>
       <c r="M11" t="n">
-        <v>580.7013275441935</v>
+        <v>555.4926201204348</v>
       </c>
       <c r="N11" t="n">
-        <v>676.5140286835687</v>
+        <v>786.2172600853935</v>
       </c>
       <c r="O11" t="n">
-        <v>849.1931257913208</v>
+        <v>958.8963571931456</v>
       </c>
       <c r="P11" t="n">
         <v>958.8963571931456</v>
@@ -5084,7 +5084,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.38615806340829</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C12" t="n">
-        <v>49.38615806340829</v>
+        <v>131.9154129116718</v>
       </c>
       <c r="D12" t="n">
-        <v>49.38615806340829</v>
+        <v>131.9154129116718</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9154129116718</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9154129116718</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9154129116718</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5118,22 +5118,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>25.58776342720964</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>51.36059754670032</v>
       </c>
       <c r="L12" t="n">
-        <v>257.8852890990952</v>
+        <v>289.9647435355828</v>
       </c>
       <c r="M12" t="n">
-        <v>496.4894350879777</v>
+        <v>528.5688895244652</v>
       </c>
       <c r="N12" t="n">
-        <v>735.0935810768601</v>
+        <v>767.1730355133477</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>767.1730355133477</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5151,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8385431447839</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6864349130412</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2376582689411</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>49.38615806340829</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.38615806340829</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>32.88266821122352</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>32.88266821122352</v>
       </c>
       <c r="J13" t="n">
         <v>19.28114311021272</v>
@@ -5203,7 +5203,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>55.89051927895143</v>
+        <v>55.89051927895144</v>
       </c>
       <c r="M13" t="n">
         <v>104.8790965300929</v>
@@ -5236,13 +5236,13 @@
         <v>196.1813390171601</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>956.7467883128622</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>956.7467883128622</v>
       </c>
       <c r="D14" t="n">
-        <v>749.627473042513</v>
+        <v>956.7467883128622</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>956.7467883128622</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>713.2980116687622</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>469.8492350246621</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>226.400458380562</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5279,16 +5279,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>140.0259473578926</v>
+        <v>114.8172399341339</v>
       </c>
       <c r="L14" t="n">
-        <v>342.0971815553111</v>
+        <v>316.8884741315524</v>
       </c>
       <c r="M14" t="n">
-        <v>580.7013275441935</v>
+        <v>555.4926201204348</v>
       </c>
       <c r="N14" t="n">
-        <v>811.4259675091521</v>
+        <v>786.2172600853935</v>
       </c>
       <c r="O14" t="n">
         <v>958.8963571931456</v>
@@ -5309,19 +5309,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>749.627473042513</v>
+        <v>956.7467883128622</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>956.7467883128622</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>956.7467883128622</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>956.7467883128622</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>812.95644730546</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>664.0220376442087</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>504.7845826387531</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>358.2500246656381</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>219.5952888941843</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>106.9610190927253</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>25.58776342720963</v>
       </c>
       <c r="K15" t="n">
-        <v>156.6810048504754</v>
+        <v>25.58776342720963</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2851508393578</v>
+        <v>264.1919094160921</v>
       </c>
       <c r="M15" t="n">
-        <v>528.5688895244652</v>
+        <v>502.7960554049745</v>
       </c>
       <c r="N15" t="n">
-        <v>528.5688895244652</v>
+        <v>741.4002013938571</v>
       </c>
       <c r="O15" t="n">
-        <v>767.1730355133477</v>
+        <v>741.4002013938571</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>885.1431046930642</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8385431447839</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6864349130412</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2376582689411</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5428,10 +5428,10 @@
         <v>196.1813390171601</v>
       </c>
       <c r="H16" t="n">
-        <v>196.1813390171601</v>
+        <v>32.88266821122352</v>
       </c>
       <c r="I16" t="n">
-        <v>41.0790267120783</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>825.6800813726992</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C17" t="n">
-        <v>825.6800813726992</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D17" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E17" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F17" t="n">
-        <v>267.7881344992537</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J17" t="n">
         <v>22.09252109618843</v>
@@ -5525,10 +5525,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5546,19 +5546,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U17" t="n">
-        <v>1104.626054809422</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="V17" t="n">
-        <v>1104.626054809422</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="W17" t="n">
-        <v>1104.626054809422</v>
+        <v>292.8609869371771</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>309.6816665288935</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C18" t="n">
-        <v>309.6816665288935</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D18" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E18" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F18" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K18" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L18" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M18" t="n">
-        <v>685.3494183114808</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N18" t="n">
-        <v>685.3494183114808</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O18" t="n">
-        <v>828.8278839945615</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P18" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809422</v>
@@ -5622,22 +5622,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T18" t="n">
-        <v>1104.626054809422</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U18" t="n">
-        <v>1104.626054809422</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V18" t="n">
-        <v>1104.626054809422</v>
+        <v>667.5940466057882</v>
       </c>
       <c r="W18" t="n">
-        <v>893.5088025194483</v>
+        <v>413.3566898775866</v>
       </c>
       <c r="X18" t="n">
-        <v>685.6573023139155</v>
+        <v>413.3566898775866</v>
       </c>
       <c r="Y18" t="n">
-        <v>477.8970035489615</v>
+        <v>205.5963911126327</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
         <v>58.70189726492714</v>
@@ -5701,22 +5701,22 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E20" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F20" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J20" t="n">
         <v>22.09252109618843</v>
@@ -5762,10 +5762,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5774,28 +5774,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S20" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="T20" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="U20" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V20" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W20" t="n">
-        <v>858.9304414063566</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X20" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>248.2861729946558</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="C21" t="n">
-        <v>248.2861729946558</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D21" t="n">
-        <v>248.2861729946558</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E21" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F21" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G21" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H21" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L21" t="n">
         <v>268.2479876888894</v>
@@ -5841,13 +5841,13 @@
         <v>541.6429362542212</v>
       </c>
       <c r="N21" t="n">
-        <v>815.0378848195531</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O21" t="n">
-        <v>1025.71200399185</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P21" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5856,25 +5856,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T21" t="n">
-        <v>730.7421420887098</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U21" t="n">
-        <v>502.5235297228575</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V21" t="n">
-        <v>502.5235297228575</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W21" t="n">
-        <v>248.2861729946558</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X21" t="n">
-        <v>248.2861729946558</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="Y21" t="n">
-        <v>248.2861729946558</v>
+        <v>179.1664772780923</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522888</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
         <v>58.70189726492714</v>
@@ -5938,22 +5938,22 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0072940269174</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C23" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="D23" t="n">
+        <v>858.9304414063565</v>
+      </c>
+      <c r="E23" t="n">
+        <v>579.9844679696338</v>
+      </c>
+      <c r="F23" t="n">
         <v>301.0384945329111</v>
-      </c>
-      <c r="D23" t="n">
-        <v>301.0384945329111</v>
-      </c>
-      <c r="E23" t="n">
-        <v>301.0384945329111</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22.09252109618843</v>
       </c>
       <c r="G23" t="n">
         <v>22.09252109618843</v>
@@ -6017,22 +6017,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T23" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U23" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V23" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W23" t="n">
-        <v>600.95326746364</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X23" t="n">
-        <v>322.0072940269174</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y23" t="n">
-        <v>322.0072940269174</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>199.6247908789907</v>
+        <v>789.9067087885911</v>
       </c>
       <c r="C24" t="n">
-        <v>199.6247908789907</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="D24" t="n">
-        <v>199.6247908789907</v>
+        <v>466.5192698462128</v>
       </c>
       <c r="E24" t="n">
-        <v>199.6247908789907</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F24" t="n">
-        <v>199.6247908789907</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G24" t="n">
-        <v>199.6247908789907</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H24" t="n">
-        <v>86.99052107753168</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I24" t="n">
         <v>22.09252109618843</v>
@@ -6069,22 +6069,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K24" t="n">
-        <v>159.4923828364511</v>
+        <v>35.88252027119665</v>
       </c>
       <c r="L24" t="n">
-        <v>405.6478494291521</v>
+        <v>282.0379868638976</v>
       </c>
       <c r="M24" t="n">
-        <v>564.734292660806</v>
+        <v>555.4329354292295</v>
       </c>
       <c r="N24" t="n">
-        <v>838.1292412261379</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="O24" t="n">
-        <v>1104.626054809422</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P24" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q24" t="n">
         <v>1104.626054809422</v>
@@ -6096,22 +6096,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T24" t="n">
-        <v>1104.626054809422</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U24" t="n">
-        <v>1104.626054809422</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V24" t="n">
-        <v>869.473946577679</v>
+        <v>902.746154837531</v>
       </c>
       <c r="W24" t="n">
-        <v>615.2365898494775</v>
+        <v>902.746154837531</v>
       </c>
       <c r="X24" t="n">
-        <v>407.3850896439446</v>
+        <v>789.9067087885911</v>
       </c>
       <c r="Y24" t="n">
-        <v>199.6247908789907</v>
+        <v>789.9067087885911</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="D25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="E25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="F25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="G25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="H25" t="n">
-        <v>927.7258589024743</v>
+        <v>941.3273840034851</v>
       </c>
       <c r="I25" t="n">
         <v>927.7258589024743</v>
@@ -6175,22 +6175,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y25" t="n">
-        <v>927.7258589024743</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.788134499254</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="C26" t="n">
-        <v>22.09252109618843</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D26" t="n">
         <v>22.09252109618843</v>
@@ -6236,10 +6236,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N26" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O26" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P26" t="n">
         <v>1099.465256491931</v>
@@ -6257,19 +6257,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U26" t="n">
-        <v>1104.626054809422</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="V26" t="n">
-        <v>1104.626054809422</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="W26" t="n">
-        <v>825.6800813726993</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="X26" t="n">
-        <v>546.7341079359767</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="Y26" t="n">
-        <v>267.788134499254</v>
+        <v>571.8069603738998</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>160.7472568676422</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="C27" t="n">
-        <v>160.7472568676422</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="D27" t="n">
-        <v>160.7472568676422</v>
+        <v>466.5192698462128</v>
       </c>
       <c r="E27" t="n">
-        <v>160.7472568676422</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F27" t="n">
         <v>160.7472568676422</v>
@@ -6303,13 +6303,13 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J27" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K27" t="n">
-        <v>159.4923828364511</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L27" t="n">
-        <v>212.4252932779023</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M27" t="n">
         <v>485.8202418432341</v>
@@ -6330,25 +6330,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S27" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T27" t="n">
-        <v>730.7421420887096</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U27" t="n">
-        <v>502.5235297228572</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V27" t="n">
-        <v>368.5987570731751</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W27" t="n">
-        <v>368.5987570731751</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X27" t="n">
-        <v>160.7472568676422</v>
+        <v>991.4293152924861</v>
       </c>
       <c r="Y27" t="n">
-        <v>160.7472568676422</v>
+        <v>783.6690165275322</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="G28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="H28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="I28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="J28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="K28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="L28" t="n">
-        <v>58.70189726492714</v>
+        <v>964.335235071213</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6904745160686</v>
+        <v>1013.323812322354</v>
       </c>
       <c r="N28" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O28" t="n">
-        <v>194.1252445754622</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U28" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="V28" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="W28" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="X28" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="Y28" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>825.6800813726991</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C29" t="n">
-        <v>825.6800813726991</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="D29" t="n">
-        <v>825.6800813726991</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E29" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F29" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G29" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H29" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I29" t="n">
         <v>22.09252109618843</v>
@@ -6473,10 +6473,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N29" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O29" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P29" t="n">
         <v>1099.465256491931</v>
@@ -6497,13 +6497,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V29" t="n">
-        <v>825.6800813726991</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W29" t="n">
-        <v>825.6800813726991</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X29" t="n">
-        <v>825.6800813726991</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y29" t="n">
         <v>825.6800813726991</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>222.40666688016</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C30" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D30" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E30" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F30" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G30" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H30" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I30" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J30" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K30" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L30" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M30" t="n">
-        <v>411.954469746149</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N30" t="n">
-        <v>562.3310704112774</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O30" t="n">
-        <v>828.8278839945613</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P30" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q30" t="n">
         <v>1104.626054809422</v>
@@ -6573,19 +6573,19 @@
         <v>902.746154837531</v>
       </c>
       <c r="U30" t="n">
-        <v>902.746154837531</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="V30" t="n">
-        <v>902.746154837531</v>
+        <v>439.3754342399359</v>
       </c>
       <c r="W30" t="n">
-        <v>806.2338028707147</v>
+        <v>404.3970505828483</v>
       </c>
       <c r="X30" t="n">
-        <v>598.3823026651819</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y30" t="n">
-        <v>390.622003900228</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J31" t="n">
         <v>22.09252109618843</v>
@@ -6640,31 +6640,31 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q31" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R31" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S31" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T31" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U31" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V31" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W31" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X31" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>571.8069603738999</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C32" t="n">
-        <v>571.8069603738999</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D32" t="n">
-        <v>571.8069603738999</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E32" t="n">
-        <v>571.8069603738999</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F32" t="n">
-        <v>571.8069603738999</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="G32" t="n">
         <v>508.1578098032604</v>
@@ -6710,10 +6710,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N32" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O32" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P32" t="n">
         <v>1099.465256491931</v>
@@ -6731,19 +6731,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U32" t="n">
-        <v>850.7529338106226</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V32" t="n">
-        <v>850.7529338106226</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W32" t="n">
-        <v>571.8069603738999</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X32" t="n">
-        <v>571.8069603738999</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y32" t="n">
-        <v>571.8069603738999</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>556.6464062755786</v>
+        <v>656.5303702859801</v>
       </c>
       <c r="C33" t="n">
-        <v>556.6464062755786</v>
+        <v>656.5303702859801</v>
       </c>
       <c r="D33" t="n">
-        <v>466.5192698462128</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="E33" t="n">
-        <v>307.2818148407573</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F33" t="n">
-        <v>160.7472568676423</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G33" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H33" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I33" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J33" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K33" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L33" t="n">
-        <v>22.09252109618844</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M33" t="n">
-        <v>288.9361218459458</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N33" t="n">
-        <v>562.3310704112777</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O33" t="n">
-        <v>828.8278839945615</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P33" t="n">
         <v>1025.71200399185</v>
@@ -6804,25 +6804,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S33" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T33" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U33" t="n">
-        <v>932.6220420606005</v>
+        <v>910.7677270141817</v>
       </c>
       <c r="V33" t="n">
-        <v>932.6220420606005</v>
+        <v>910.7677270141817</v>
       </c>
       <c r="W33" t="n">
-        <v>932.6220420606005</v>
+        <v>656.5303702859801</v>
       </c>
       <c r="X33" t="n">
-        <v>932.6220420606005</v>
+        <v>656.5303702859801</v>
       </c>
       <c r="Y33" t="n">
-        <v>724.8617432956466</v>
+        <v>656.5303702859801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F34" t="n">
-        <v>52.10276950522544</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G34" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H34" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I34" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J34" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K34" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L34" t="n">
         <v>58.70189726492714</v>
@@ -6901,7 +6901,7 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>579.9844679696339</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="C35" t="n">
-        <v>579.9844679696339</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="D35" t="n">
-        <v>579.9844679696339</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="E35" t="n">
-        <v>301.0384945329112</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="F35" t="n">
-        <v>301.0384945329112</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="G35" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H35" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I35" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J35" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K35" t="n">
         <v>142.8373253438683</v>
@@ -6962,25 +6962,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S35" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T35" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U35" t="n">
-        <v>1104.626054809422</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="V35" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="W35" t="n">
-        <v>858.9304414063566</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="X35" t="n">
-        <v>579.9844679696339</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="Y35" t="n">
-        <v>579.9844679696339</v>
+        <v>229.2118363665377</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.225426359828</v>
+        <v>239.2609540644555</v>
       </c>
       <c r="C36" t="n">
-        <v>109.772397078701</v>
+        <v>239.2609540644555</v>
       </c>
       <c r="D36" t="n">
-        <v>109.772397078701</v>
+        <v>239.2609540644555</v>
       </c>
       <c r="E36" t="n">
-        <v>109.772397078701</v>
+        <v>222.40666688016</v>
       </c>
       <c r="F36" t="n">
-        <v>109.772397078701</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G36" t="n">
-        <v>109.772397078701</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H36" t="n">
         <v>109.772397078701</v>
       </c>
       <c r="I36" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J36" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K36" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L36" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M36" t="n">
-        <v>634.3469862468015</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N36" t="n">
-        <v>907.7419348121334</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O36" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P36" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q36" t="n">
         <v>1104.626054809422</v>
@@ -7041,25 +7041,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S36" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T36" t="n">
-        <v>730.7421420887098</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U36" t="n">
-        <v>538.4627830880297</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V36" t="n">
-        <v>538.4627830880297</v>
+        <v>869.473946577679</v>
       </c>
       <c r="W36" t="n">
-        <v>284.225426359828</v>
+        <v>615.2365898494775</v>
       </c>
       <c r="X36" t="n">
-        <v>284.225426359828</v>
+        <v>615.2365898494775</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.225426359828</v>
+        <v>407.4762910845236</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>191.0287040240954</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="G37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="H37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="I37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="J37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="K37" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="L37" t="n">
-        <v>58.70189726492714</v>
+        <v>964.335235071213</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6904745160686</v>
+        <v>1013.323812322354</v>
       </c>
       <c r="N37" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O37" t="n">
-        <v>194.1252445754622</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W37" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X37" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>672.0084928939002</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C38" t="n">
-        <v>508.1578098032605</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D38" t="n">
-        <v>229.2118363665377</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E38" t="n">
-        <v>229.2118363665377</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F38" t="n">
-        <v>229.2118363665377</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="G38" t="n">
-        <v>229.2118363665377</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="H38" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I38" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J38" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K38" t="n">
         <v>142.8373253438683</v>
@@ -7199,25 +7199,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S38" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T38" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U38" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V38" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W38" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X38" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y38" t="n">
-        <v>672.0084928939002</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>348.7949060700458</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C39" t="n">
-        <v>330.2643857628952</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D39" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E39" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F39" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G39" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H39" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I39" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J39" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6947060708167</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L39" t="n">
-        <v>367.8501726635177</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M39" t="n">
-        <v>641.2451212288496</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N39" t="n">
-        <v>641.2451212288496</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O39" t="n">
-        <v>907.7419348121334</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P39" t="n">
         <v>1104.626054809422</v>
@@ -7278,25 +7278,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S39" t="n">
-        <v>932.6220420606005</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T39" t="n">
-        <v>932.6220420606005</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U39" t="n">
-        <v>932.6220420606005</v>
+        <v>704.403429694748</v>
       </c>
       <c r="V39" t="n">
-        <v>932.6220420606005</v>
+        <v>469.2513214630052</v>
       </c>
       <c r="W39" t="n">
-        <v>932.6220420606005</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="X39" t="n">
-        <v>724.7705418550677</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y39" t="n">
-        <v>517.0102430901138</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198.9927170031358</v>
+        <v>191.0287040240954</v>
       </c>
       <c r="C40" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D40" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E40" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F40" t="n">
-        <v>52.10276950522544</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L40" t="n">
         <v>58.70189726492714</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7412,22 +7412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>140.0259473578926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L41" t="n">
-        <v>207.1852427297276</v>
+        <v>221.3523773076312</v>
       </c>
       <c r="M41" t="n">
-        <v>445.78938871861</v>
+        <v>459.9565232965137</v>
       </c>
       <c r="N41" t="n">
-        <v>676.5140286835687</v>
+        <v>690.6811632614723</v>
       </c>
       <c r="O41" t="n">
-        <v>849.1931257913208</v>
+        <v>863.3602603692244</v>
       </c>
       <c r="P41" t="n">
-        <v>958.8963571931456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
         <v>964.0571555106362</v>
@@ -7442,19 +7442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>431.6329475107597</v>
+        <v>728.2406488120129</v>
       </c>
       <c r="C42" t="n">
-        <v>431.6329475107597</v>
+        <v>553.7876195308859</v>
       </c>
       <c r="D42" t="n">
-        <v>282.6985378495085</v>
+        <v>404.8532098696346</v>
       </c>
       <c r="E42" t="n">
-        <v>123.461082844053</v>
+        <v>245.6157548641791</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>245.6157548641791</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>106.9610190927253</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>106.9610190927253</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>25.58776342720963</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>25.58776342720963</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>264.1919094160921</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="M42" t="n">
-        <v>449.6548387068933</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="N42" t="n">
-        <v>688.2589846957758</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>688.2589846957758</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>885.1431046930642</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>867.611858641566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>867.611858641566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>867.611858641566</v>
+        <v>896.4559858320808</v>
       </c>
       <c r="U42" t="n">
-        <v>639.3932462757136</v>
+        <v>896.4559858320808</v>
       </c>
       <c r="V42" t="n">
-        <v>639.3932462757136</v>
+        <v>896.4559858320808</v>
       </c>
       <c r="W42" t="n">
-        <v>639.3932462757136</v>
+        <v>896.4559858320808</v>
       </c>
       <c r="X42" t="n">
-        <v>639.3932462757136</v>
+        <v>896.4559858320808</v>
       </c>
       <c r="Y42" t="n">
-        <v>431.6329475107597</v>
+        <v>896.4559858320808</v>
       </c>
     </row>
     <row r="43">
@@ -7588,10 +7588,10 @@
         <v>196.1813390171601</v>
       </c>
       <c r="Q43" t="n">
-        <v>195.4971013564546</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="S43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>495.8815649574769</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>495.8815649574769</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7649,49 +7649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>19.28114311021272</v>
+        <v>140.0259473578926</v>
       </c>
       <c r="L44" t="n">
-        <v>221.3523773076312</v>
+        <v>342.0971815553111</v>
       </c>
       <c r="M44" t="n">
-        <v>459.9565232965137</v>
+        <v>560.6534184379254</v>
       </c>
       <c r="N44" t="n">
-        <v>690.6811632614723</v>
+        <v>791.3780584028841</v>
       </c>
       <c r="O44" t="n">
-        <v>849.1931257913208</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P44" t="n">
-        <v>958.8963571931456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>821.6073760305561</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>821.6073760305561</v>
       </c>
       <c r="T44" t="n">
-        <v>739.3303416015769</v>
+        <v>821.6073760305561</v>
       </c>
       <c r="U44" t="n">
-        <v>495.8815649574769</v>
+        <v>821.6073760305561</v>
       </c>
       <c r="V44" t="n">
-        <v>495.8815649574769</v>
+        <v>821.6073760305561</v>
       </c>
       <c r="W44" t="n">
-        <v>495.8815649574769</v>
+        <v>821.6073760305561</v>
       </c>
       <c r="X44" t="n">
-        <v>495.8815649574769</v>
+        <v>578.158599386456</v>
       </c>
       <c r="Y44" t="n">
-        <v>495.8815649574769</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7725,52 +7725,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>25.58776342720964</v>
+        <v>25.58776342720963</v>
       </c>
       <c r="K45" t="n">
         <v>162.9876251674723</v>
       </c>
       <c r="L45" t="n">
+        <v>162.9876251674723</v>
+      </c>
+      <c r="M45" t="n">
         <v>401.5917711563548</v>
       </c>
-      <c r="M45" t="n">
-        <v>449.6548387068933</v>
-      </c>
       <c r="N45" t="n">
-        <v>688.2589846957758</v>
+        <v>640.1959171452372</v>
       </c>
       <c r="O45" t="n">
-        <v>688.2589846957758</v>
+        <v>878.8000631341197</v>
       </c>
       <c r="P45" t="n">
-        <v>885.1431046930642</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>867.611858641566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>867.611858641566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>867.611858641566</v>
+        <v>933.9521405574407</v>
       </c>
       <c r="U45" t="n">
-        <v>867.611858641566</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V45" t="n">
-        <v>867.611858641566</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>867.611858641566</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>867.611858641566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>823.7663357724276</v>
+        <v>55.89051927895143</v>
       </c>
       <c r="M46" t="n">
-        <v>872.7549130235691</v>
+        <v>104.8790965300929</v>
       </c>
       <c r="N46" t="n">
-        <v>926.0132678243855</v>
+        <v>158.1374513309094</v>
       </c>
       <c r="O46" t="n">
-        <v>959.1896830829627</v>
+        <v>191.3138665894865</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="Q46" t="n">
-        <v>882.36641522467</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="R46" t="n">
-        <v>882.36641522467</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="S46" t="n">
-        <v>787.156959603689</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="T46" t="n">
-        <v>787.156959603689</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="U46" t="n">
-        <v>787.156959603689</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="V46" t="n">
-        <v>787.156959603689</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="W46" t="n">
-        <v>787.156959603689</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="X46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>298.6820717390852</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>446.6392077481595</v>
+        <v>446.6392077481594</v>
       </c>
       <c r="N11" t="n">
-        <v>301.0722387295766</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>151.7106636582635</v>
       </c>
       <c r="L12" t="n">
         <v>363.2127487339455</v>
@@ -8778,13 +8778,13 @@
         <v>364.0617357077541</v>
       </c>
       <c r="N12" t="n">
-        <v>352.7642487026583</v>
+        <v>352.7642487026582</v>
       </c>
       <c r="O12" t="n">
-        <v>355.949956499449</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>298.6820717390852</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>446.6392077481595</v>
+        <v>446.6392077481594</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>355.336840430666</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>210.9873633211545</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L15" t="n">
         <v>363.2127487339455</v>
       </c>
       <c r="M15" t="n">
-        <v>257.6774859059611</v>
+        <v>364.0617357077541</v>
       </c>
       <c r="N15" t="n">
-        <v>111.7499598249992</v>
+        <v>352.7642487026583</v>
       </c>
       <c r="O15" t="n">
-        <v>365.687907565213</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>264.7847719752086</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N18" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O18" t="n">
-        <v>269.6013618017769</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887213</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N21" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O21" t="n">
-        <v>337.4757592656316</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>119.5899201578276</v>
+        <v>142.9145225887213</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>139.6067899769681</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>283.7408238317656</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N24" t="n">
         <v>387.9064735273547</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P24" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L27" t="n">
-        <v>175.6660461607826</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>399.2039605324504</v>
+        <v>336.4470769688302</v>
       </c>
       <c r="N27" t="n">
         <v>387.9064735273547</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N30" t="n">
-        <v>263.6455160524017</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887213</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10431,19 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L33" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>392.5864374864155</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N33" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>337.4757592656315</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599045</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,25 +10665,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>354.0566759388319</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N36" t="n">
-        <v>387.9064735273547</v>
+        <v>132.6470650341469</v>
       </c>
       <c r="O36" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K39" t="n">
-        <v>226.2857655321398</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N39" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887213</v>
       </c>
       <c r="Q39" t="n">
         <v>130.3661252938572</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L41" t="n">
-        <v>281.3865288680428</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>446.6392077481594</v>
+        <v>446.6392077481595</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>312.70139881753</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K42" t="n">
         <v>125.6774978810001</v>
@@ -11145,19 +11145,19 @@
         <v>363.2127487339455</v>
       </c>
       <c r="M42" t="n">
-        <v>310.3837390430256</v>
+        <v>364.0617357077541</v>
       </c>
       <c r="N42" t="n">
-        <v>352.7642487026583</v>
+        <v>343.0262976368942</v>
       </c>
       <c r="O42" t="n">
-        <v>124.673618687554</v>
+        <v>365.687907565213</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>202.1809638361346</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>446.6392077481595</v>
+        <v>426.3887945095048</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>366.4899443153679</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>363.2127487339455</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5959999114471</v>
+        <v>364.0617357077541</v>
       </c>
       <c r="N45" t="n">
-        <v>352.7642487026582</v>
+        <v>352.7642487026583</v>
       </c>
       <c r="O45" t="n">
-        <v>124.673618687554</v>
+        <v>365.687907565213</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>205.7081952856221</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,10 +22553,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,22 +22589,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.9526345551508</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22638,16 +22638,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>63.30063122618253</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22866,22 +22866,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>133.1134339994949</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>96.10707538100229</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22923,7 +22923,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
@@ -23027,10 +23027,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23106,22 +23106,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>10.86033733047985</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,13 +23157,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>58.35694076576911</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.1476596496604</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23337,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>1.358143673781797</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>127.8411156517373</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,10 +23352,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,10 +23391,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23431,13 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>75.4287465844977</v>
       </c>
       <c r="K13" t="n">
         <v>14.93225064571201</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23510,10 +23510,10 @@
         <v>174.1476596496604</v>
       </c>
       <c r="H14" t="n">
-        <v>338.0329468943008</v>
+        <v>97.01865801664178</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>39.04900414536925</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>320.5149949443386</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>23.11879786519125</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23628,16 +23628,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>136.7292188462037</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23668,13 +23668,13 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>140.0857793320303</v>
       </c>
       <c r="J16" t="n">
-        <v>67.31435166865147</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
         <v>14.93225064571201</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>171.9232912582848</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
@@ -23786,16 +23786,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>101.6703194958903</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.5728513219033</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23823,7 +23823,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
         <v>111.5079271034444</v>
@@ -23862,19 +23862,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>42.68890339384572</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23975,13 +23975,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F20" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8118405263978</v>
+        <v>103.5984649426426</v>
       </c>
       <c r="T20" t="n">
         <v>222.4795457699687</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>106.0023114483784</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.0814249536981</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24048,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>17.20528236823094</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>20.51644229860565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,7 +24066,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,22 +24096,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>140.7311001689623</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,7 +24178,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T22" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
         <v>286.3155846423218</v>
@@ -24206,19 +24206,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>344.5137802719414</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516482</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F23" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G23" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H23" t="n">
         <v>338.0329468943008</v>
@@ -24257,7 +24257,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U23" t="n">
         <v>251.3343897888113</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,25 +24285,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I24" t="n">
-        <v>22.55405724115759</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,22 +24336,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>94.06193361502702</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24379,10 +24379,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>153.551289182031</v>
+        <v>140.0857793320303</v>
       </c>
       <c r="J25" t="n">
         <v>88.89425643449839</v>
@@ -24415,7 +24415,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T25" t="n">
-        <v>52.54455953715791</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U25" t="n">
         <v>286.3155846423218</v>
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>122.0342345019726</v>
+        <v>97.2121105884288</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24497,7 +24497,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24506,10 @@
         <v>73.08445501505759</v>
       </c>
       <c r="X26" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V27" t="n">
-        <v>100.21506222624</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>93.70821308171122</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.700786234059422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24655,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E29" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.1619485273195</v>
       </c>
       <c r="H29" t="n">
-        <v>299.842411742912</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V29" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,10 +24774,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,19 +24813,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>156.1477547137715</v>
+        <v>217.0663833404028</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24859,7 +24859,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K31" t="n">
         <v>14.93225064571201</v>
@@ -24880,13 +24880,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R31" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S31" t="n">
-        <v>217.5529072296736</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T31" t="n">
         <v>227.6757534850358</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421691</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,10 +24929,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>352.1492894623864</v>
+        <v>376.9714133759306</v>
       </c>
       <c r="H32" t="n">
-        <v>61.87643319194535</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24971,13 +24971,13 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>58.21920049956667</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,10 +25011,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T33" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9364262421938</v>
+        <v>34.01668172490619</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.2176803404121</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H34" t="n">
         <v>161.6656840978772</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421691</v>
       </c>
     </row>
     <row r="35">
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H35" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I35" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25202,22 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W35" t="n">
-        <v>106.0023114483784</v>
+        <v>215.8836364765225</v>
       </c>
       <c r="X35" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>140.9593361429484</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25248,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,16 +25281,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U36" t="n">
-        <v>35.57986083152056</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.9476073326873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115928</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,10 +25391,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>203.0607155112742</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>78.52652791832747</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0329468943008</v>
+        <v>94.79428962526615</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25439,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U38" t="n">
         <v>251.3343897888113</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>154.3632838842367</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25524,16 +25524,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>14.69046657507533</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>171.9476073326873</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.2176803404121</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H40" t="n">
         <v>161.6656840978772</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.1619485273195</v>
@@ -25682,7 +25682,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U41" t="n">
-        <v>10.3201009111522</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,16 +25716,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>41.93107205688206</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I42" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S42" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T42" t="n">
-        <v>199.8611009721718</v>
+        <v>132.935942990402</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25828,13 +25828,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.19643759900799</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S43" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206875</v>
       </c>
       <c r="T43" t="n">
         <v>227.6757534850358</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>123.8629128695505</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.1619485273195</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U44" t="n">
-        <v>10.3201009111522</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>314.9778346978909</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25962,7 +25962,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I45" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S45" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
-        <v>199.8611009721718</v>
+        <v>170.0571361685082</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.16711605948746</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26065,13 +26065,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R46" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S46" t="n">
-        <v>128.6586507951753</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T46" t="n">
         <v>227.6757534850358</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115928</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>495770.4286427892</v>
+        <v>495770.4286427891</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>495770.428642789</v>
+        <v>495770.4286427891</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>520354.2281896696</v>
+        <v>520354.2281896697</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>520354.2281896697</v>
+        <v>520354.2281896696</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>520354.2281896697</v>
+        <v>520354.2281896696</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>520354.2281896697</v>
+        <v>520354.2281896696</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520354.2281896697</v>
+        <v>520354.2281896696</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
         <v>132928.5380250659</v>
@@ -26320,7 +26320,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>135090.1251148563</v>
+        <v>135090.1251148562</v>
       </c>
       <c r="F2" t="n">
         <v>135090.1251148563</v>
@@ -26332,16 +26332,16 @@
         <v>141745.4664845208</v>
       </c>
       <c r="I2" t="n">
+        <v>141745.4664845207</v>
+      </c>
+      <c r="J2" t="n">
+        <v>141745.4664845207</v>
+      </c>
+      <c r="K2" t="n">
         <v>141745.4664845208</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>141745.4664845208</v>
-      </c>
-      <c r="K2" t="n">
-        <v>141745.4664845207</v>
-      </c>
-      <c r="L2" t="n">
-        <v>141745.4664845207</v>
       </c>
       <c r="M2" t="n">
         <v>141745.4664845208</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28136.18592552744</v>
+        <v>28136.18592552745</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9631.956691076921</v>
+        <v>9631.956691076906</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589616</v>
       </c>
       <c r="C4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="D4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>40486.9656391503</v>
+        <v>40022.32952895874</v>
       </c>
       <c r="F4" t="n">
-        <v>40486.96563915031</v>
+        <v>40022.32952895875</v>
       </c>
       <c r="G4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="H4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="I4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="J4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="K4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="L4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="M4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="N4" t="n">
-        <v>42659.199750998</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="O4" t="n">
-        <v>40486.9656391503</v>
+        <v>40022.32952895875</v>
       </c>
       <c r="P4" t="n">
-        <v>40486.9656391503</v>
+        <v>40022.32952895875</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>15417.1322474386</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="I5" t="n">
         <v>17553.77951678014</v>
@@ -26497,13 +26497,13 @@
         <v>17553.77951678014</v>
       </c>
       <c r="L5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="M5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="N5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="O5" t="n">
         <v>15417.1322474386</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38627.50888069939</v>
+        <v>-38139.58762613966</v>
       </c>
       <c r="C6" t="n">
-        <v>42141.92265084829</v>
+        <v>42629.8439054081</v>
       </c>
       <c r="D6" t="n">
-        <v>42141.92265084829</v>
+        <v>42629.84390540809</v>
       </c>
       <c r="E6" t="n">
-        <v>51049.84130273991</v>
+        <v>51514.47741293145</v>
       </c>
       <c r="F6" t="n">
-        <v>79186.02722826737</v>
+        <v>79650.66333845892</v>
       </c>
       <c r="G6" t="n">
-        <v>71900.5305256657</v>
+        <v>72389.91405435083</v>
       </c>
       <c r="H6" t="n">
-        <v>81532.48721674265</v>
+        <v>82021.87074542776</v>
       </c>
       <c r="I6" t="n">
-        <v>81532.48721674265</v>
+        <v>82021.8707454277</v>
       </c>
       <c r="J6" t="n">
-        <v>18472.54461763639</v>
+        <v>18961.92814632147</v>
       </c>
       <c r="K6" t="n">
-        <v>81532.48721674259</v>
+        <v>82021.87074542776</v>
       </c>
       <c r="L6" t="n">
-        <v>81532.48721674259</v>
+        <v>82021.87074542773</v>
       </c>
       <c r="M6" t="n">
-        <v>81532.48721674262</v>
+        <v>82021.87074542776</v>
       </c>
       <c r="N6" t="n">
-        <v>81532.48721674262</v>
+        <v>82021.87074542782</v>
       </c>
       <c r="O6" t="n">
-        <v>79186.0272282674</v>
+        <v>79650.66333845889</v>
       </c>
       <c r="P6" t="n">
-        <v>79186.0272282674</v>
+        <v>79650.66333845898</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
         <v>35.02126071912532</v>
@@ -26777,7 +26777,7 @@
         <v>35.02126071912532</v>
       </c>
       <c r="P3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
     </row>
     <row r="4">
@@ -26802,10 +26802,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
         <v>276.1565137023554</v>
@@ -26817,13 +26817,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="L4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="M4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O4" t="n">
         <v>241.0142888776591</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31756,16 +31756,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760118</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
         <v>24.72131435677232</v>
@@ -31783,16 +31783,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779988</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
         <v>12.16394109335884</v>
@@ -31850,7 +31850,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
         <v>17.92262575689049</v>
@@ -31859,19 +31859,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948817</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
         <v>0.2698359432457196</v>
@@ -34363,16 +34363,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I44" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L44" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M44" t="n">
         <v>24.72131435677232</v>
@@ -34390,16 +34390,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R44" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S44" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I45" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J45" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K45" t="n">
         <v>12.16394109335884</v>
@@ -34457,7 +34457,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N45" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O45" t="n">
         <v>17.92262575689049</v>
@@ -34466,19 +34466,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R45" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S45" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I46" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J46" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K46" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L46" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M46" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N46" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O46" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P46" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R46" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S46" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T46" t="n">
         <v>0.2698359432457196</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34784,16 +34784,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>96.50110790295064</v>
       </c>
       <c r="L11" t="n">
         <v>204.1123577751702</v>
@@ -35419,16 +35419,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N11" t="n">
-        <v>96.78050620138902</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424821</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.03316577726331</v>
       </c>
       <c r="L12" t="n">
         <v>241.0142888776591</v>
@@ -35501,10 +35501,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350302</v>
+        <v>96.50110790295064</v>
       </c>
       <c r="L14" t="n">
         <v>204.1123577751702</v>
@@ -35659,7 +35659,7 @@
         <v>233.0551918837966</v>
       </c>
       <c r="O14" t="n">
-        <v>148.9599895797914</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="M15" t="n">
-        <v>134.6300390758661</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>145.1948518173809</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>144.9277431142229</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8728484821096</v>
+        <v>23.32460243089367</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O21" t="n">
-        <v>212.8021405780776</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>23.32460243089367</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.7877391315784</v>
+        <v>13.9292920959679</v>
       </c>
       <c r="L24" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M24" t="n">
-        <v>160.6933770016706</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N24" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="O24" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K27" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>53.46758630449612</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M27" t="n">
-        <v>276.1565137023554</v>
+        <v>213.3996301387351</v>
       </c>
       <c r="N27" t="n">
         <v>276.1565137023554</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N30" t="n">
-        <v>151.8955562274025</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O30" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P30" t="n">
-        <v>198.8728484821096</v>
+        <v>23.32460243089367</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M33" t="n">
-        <v>269.5389906563205</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N33" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O33" t="n">
-        <v>269.1887005891756</v>
+        <v>212.8021405780775</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>79.71116244199196</v>
@@ -37324,7 +37324,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.212927593424865</v>
+        <v>5.212927593424635</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M36" t="n">
-        <v>231.0092291087368</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N36" t="n">
-        <v>276.1565137023555</v>
+        <v>20.89710520914767</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P36" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P38" t="n">
-        <v>110.8113448503282</v>
+        <v>110.811344850328</v>
       </c>
       <c r="Q38" t="n">
         <v>5.212927593424821</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>100.6082676511397</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M39" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O39" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8728484821096</v>
+        <v>23.32460243089367</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>121.9644487350302</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>67.83767209276262</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M41" t="n">
         <v>241.0142888776591</v>
@@ -37795,10 +37795,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P41" t="n">
-        <v>110.8113448503282</v>
+        <v>101.7140354963756</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.212927593424821</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="M42" t="n">
-        <v>187.3362922129305</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>231.276337811895</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L44" t="n">
         <v>204.1123577751702</v>
       </c>
       <c r="M44" t="n">
-        <v>241.0142888776591</v>
+        <v>220.7638756390044</v>
       </c>
       <c r="N44" t="n">
         <v>233.0551918837966</v>
       </c>
       <c r="O44" t="n">
-        <v>160.1130934644934</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P44" t="n">
-        <v>110.8113448503282</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.370323552522133</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K45" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="M45" t="n">
-        <v>48.54855308135208</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8728484821096</v>
+        <v>86.11827512779449</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P46" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462319.5178324761</v>
+        <v>385367.7997766254</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433525.0836027454</v>
+        <v>434113.9312046671</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12118625.54424172</v>
+        <v>12116072.32741042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8018970.710652639</v>
+        <v>8021430.871647157</v>
       </c>
     </row>
     <row r="11">
@@ -661,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T2" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U2" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>150.9993436124999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>73.68153053617465</v>
       </c>
       <c r="H6" t="n">
-        <v>4.580549094716531</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1189,10 +1189,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>6.541029659300109</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828964</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>61.97809761261716</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>101.6858409723543</v>
       </c>
     </row>
     <row r="13">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.14804664098575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852178</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>227.7664834517758</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>263.2420339516666</v>
+        <v>20.75911149906585</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>125.6384340685011</v>
+        <v>208.7311438739628</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>215.667943859281</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>36.70166664806661</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.8001683373802</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H17" t="n">
-        <v>324.0866155240853</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I17" t="n">
-        <v>152.5480913450119</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>58.25549283948418</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5395717772072</v>
+        <v>136.563183876413</v>
       </c>
       <c r="H18" t="n">
-        <v>104.4710243243052</v>
+        <v>104.6990674929509</v>
       </c>
       <c r="I18" t="n">
-        <v>61.71693425436622</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.24269869534074</v>
+        <v>42.63123279598098</v>
       </c>
       <c r="S18" t="n">
-        <v>137.6979682696894</v>
+        <v>157.1888225530135</v>
       </c>
       <c r="T18" t="n">
-        <v>196.924264617027</v>
+        <v>197.0194379467206</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8884909371588</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>43.8474653357332</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3367741439016</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.9878642566383</v>
+        <v>141.7404013598728</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>324.0866155240853</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I20" t="n">
-        <v>152.5480913450119</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.48335682900641</v>
+        <v>58.25549283948418</v>
       </c>
       <c r="S20" t="n">
-        <v>174.7802744481566</v>
+        <v>49.90502897243896</v>
       </c>
       <c r="T20" t="n">
-        <v>216.5183529885095</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2254473736161</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>306.8289608341154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5395717772072</v>
+        <v>116.6645219848445</v>
       </c>
       <c r="H21" t="n">
-        <v>85.41875442754586</v>
+        <v>104.6990674929509</v>
       </c>
       <c r="I21" t="n">
-        <v>61.71693425436622</v>
+        <v>62.52989468754937</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.24269869534074</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>156.7502381664491</v>
+        <v>157.1888225530135</v>
       </c>
       <c r="T21" t="n">
-        <v>196.924264617027</v>
+        <v>197.0194379467206</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8884909371588</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.5649722749657</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2833454356968</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>106.8988603442005</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>121.8506074256806</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>142.6307988877251</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>235.526308649836</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>111.9240296277377</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -2614,13 +2614,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>10.33928636045591</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>94.29856281742553</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>45.24972634440867</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>118.2537958723255</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>77.29938360928065</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>146.4340874029168</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>43.83743093372782</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>162.0432948109163</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.33095576894264</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8608514409106</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>142.929990410344</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>146.3014312583105</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>104.8405888295619</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>300.3215499425974</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V43" t="n">
-        <v>201.1407479991918</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>46.5327005489726</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>343.3725849049935</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>155.4526127311944</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.84447166430675</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4421,13 +4421,13 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>811.5325660030605</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="E6" t="n">
-        <v>23.90796037760316</v>
+        <v>353.6106250961269</v>
       </c>
       <c r="F6" t="n">
-        <v>23.90796037760316</v>
+        <v>207.0760671230118</v>
       </c>
       <c r="G6" t="n">
-        <v>23.90796037760316</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N6" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N6" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>957.4500548446765</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>755.2634602034425</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>527.0398419398316</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>291.8877337080889</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4980,31 +4980,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1052.968135806666</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C11" t="n">
-        <v>1052.968135806666</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D11" t="n">
-        <v>818.7624959030018</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E11" t="n">
-        <v>552.8614515073789</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>286.9604071117561</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>21.05936271613333</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H11" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K11" t="n">
-        <v>135.7250809573682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>330.2546714142361</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>563.3128681098024</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>785.5101925369329</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>950.137187388514</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
-        <v>1052.968135806667</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1052.968135806666</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X11" t="n">
-        <v>1052.968135806666</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y11" t="n">
-        <v>1052.968135806666</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>990.3639968040228</v>
+        <v>571.8145717925331</v>
       </c>
       <c r="C12" t="n">
-        <v>815.9109675228958</v>
+        <v>397.3615425114061</v>
       </c>
       <c r="D12" t="n">
-        <v>666.9765578616446</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="E12" t="n">
-        <v>507.7391028561891</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="F12" t="n">
-        <v>361.204544883074</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="G12" t="n">
-        <v>222.5237199540885</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6374838154158</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L12" t="n">
-        <v>21.05936271613333</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M12" t="n">
-        <v>264.2940185443781</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N12" t="n">
-        <v>524.903632156528</v>
+        <v>815.0378848195533</v>
       </c>
       <c r="O12" t="n">
-        <v>785.3166962490201</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P12" t="n">
-        <v>977.3180709271187</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1052.968135806666</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U12" t="n">
-        <v>1052.968135806666</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V12" t="n">
-        <v>1052.968135806666</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="W12" t="n">
-        <v>990.3639968040228</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="X12" t="n">
-        <v>990.3639968040228</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="Y12" t="n">
-        <v>990.3639968040228</v>
+        <v>571.8145717925331</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>54.48163939360296</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>100.1098670955239</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>150.0877739486497</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>180.2341645716483</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>182.5089274706535</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.98668255551287</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.19784761800422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="C14" t="n">
-        <v>25.19784761800422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="D14" t="n">
-        <v>25.19784761800422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E14" t="n">
-        <v>25.19784761800422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F14" t="n">
-        <v>25.19784761800422</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G14" t="n">
-        <v>25.19784761800422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H14" t="n">
-        <v>25.19784761800422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I14" t="n">
-        <v>25.19784761800422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7250809573682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>330.254671414236</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M14" t="n">
-        <v>563.3128681098024</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N14" t="n">
-        <v>785.5101925369328</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O14" t="n">
-        <v>950.1371873885138</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P14" t="n">
-        <v>1052.968135806666</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q14" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>1052.968135806666</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U14" t="n">
-        <v>822.9009808048727</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="V14" t="n">
-        <v>556.9999364092498</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="W14" t="n">
-        <v>291.0988920136271</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="X14" t="n">
-        <v>25.19784761800422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.19784761800422</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.05936271613333</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K15" t="n">
-        <v>21.05936271613333</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L15" t="n">
-        <v>261.6628906109958</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M15" t="n">
-        <v>522.2725042231457</v>
+        <v>432.8873314017829</v>
       </c>
       <c r="N15" t="n">
-        <v>600.5536970360758</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O15" t="n">
-        <v>860.9667611285679</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P15" t="n">
-        <v>1052.968135806666</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q15" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>926.0606266465643</v>
+        <v>893.7865155427926</v>
       </c>
       <c r="V15" t="n">
-        <v>690.9085184148216</v>
+        <v>658.6344073110499</v>
       </c>
       <c r="W15" t="n">
-        <v>436.6711616866201</v>
+        <v>404.3970505828483</v>
       </c>
       <c r="X15" t="n">
-        <v>228.8196614810873</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.05936271613333</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K16" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L16" t="n">
-        <v>54.48163939360295</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M16" t="n">
-        <v>100.1098670955239</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N16" t="n">
-        <v>150.0877739486497</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>180.2341645716483</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P16" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R16" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S16" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T16" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U16" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V16" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W16" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X16" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.05936271613333</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2325.888575422349</v>
+        <v>1632.240790648826</v>
       </c>
       <c r="C17" t="n">
-        <v>2108.042167483682</v>
+        <v>1632.240790648826</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.776468876931</v>
+        <v>1595.168400095224</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.988216278687</v>
+        <v>1209.380147496979</v>
       </c>
       <c r="F17" t="n">
-        <v>953.002311489079</v>
+        <v>798.3942427073717</v>
       </c>
       <c r="G17" t="n">
-        <v>535.0223434715233</v>
+        <v>380.369698049467</v>
       </c>
       <c r="H17" t="n">
-        <v>207.662125770427</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="I17" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="J17" t="n">
-        <v>167.9967420957491</v>
+        <v>163.2684600773919</v>
       </c>
       <c r="K17" t="n">
-        <v>460.232857711057</v>
+        <v>449.9470991626238</v>
       </c>
       <c r="L17" t="n">
-        <v>875.0542279590791</v>
+        <v>857.873928349396</v>
       </c>
       <c r="M17" t="n">
-        <v>1353.229475354095</v>
+        <v>1328.37767037793</v>
       </c>
       <c r="N17" t="n">
-        <v>1824.51010062298</v>
+        <v>1791.86265730319</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.339393288587</v>
+        <v>2184.33074973919</v>
       </c>
       <c r="P17" t="n">
-        <v>2527.910061293531</v>
+        <v>2481.618803655552</v>
       </c>
       <c r="Q17" t="n">
-        <v>2678.657230692464</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R17" t="n">
-        <v>2678.657230692464</v>
+        <v>2568.804059358747</v>
       </c>
       <c r="S17" t="n">
-        <v>2678.657230692464</v>
+        <v>2568.804059358747</v>
       </c>
       <c r="T17" t="n">
-        <v>2678.657230692464</v>
+        <v>2349.903518056519</v>
       </c>
       <c r="U17" t="n">
-        <v>2678.657230692464</v>
+        <v>2349.903518056519</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.657230692464</v>
+        <v>2018.840630712948</v>
       </c>
       <c r="W17" t="n">
-        <v>2325.888575422349</v>
+        <v>2018.840630712948</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.888575422349</v>
+        <v>2018.840630712948</v>
       </c>
       <c r="Y17" t="n">
-        <v>2325.888575422349</v>
+        <v>2018.840630712948</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.5179807326552</v>
+        <v>925.411655558784</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0649514515283</v>
+        <v>750.958626277657</v>
       </c>
       <c r="D18" t="n">
-        <v>665.130541790277</v>
+        <v>602.0242166164057</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8930867848214</v>
+        <v>442.7867616109502</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3585288117064</v>
+        <v>296.2522036378352</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4397694407901</v>
+        <v>158.3095936616604</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9134822445222</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="I18" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="J18" t="n">
-        <v>128.0296757109482</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="K18" t="n">
-        <v>381.9085897324891</v>
+        <v>302.6571660015149</v>
       </c>
       <c r="L18" t="n">
-        <v>784.6845165252248</v>
+        <v>700.3575322614755</v>
       </c>
       <c r="M18" t="n">
-        <v>1306.684247019512</v>
+        <v>1216.434323012739</v>
       </c>
       <c r="N18" t="n">
-        <v>1858.206770508765</v>
+        <v>1761.877144168227</v>
       </c>
       <c r="O18" t="n">
-        <v>2296.326452579501</v>
+        <v>2194.435086369829</v>
       </c>
       <c r="P18" t="n">
-        <v>2630.953055077327</v>
+        <v>2524.597902291027</v>
       </c>
       <c r="Q18" t="n">
-        <v>2678.657230692464</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R18" t="n">
-        <v>2627.907029990099</v>
+        <v>2584.58614021077</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.818173152029</v>
+        <v>2425.809551773383</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.904774548972</v>
+        <v>2226.800018493867</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.734581683154</v>
+        <v>1998.628256509283</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.582473451411</v>
+        <v>1763.47614827754</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.34511672321</v>
+        <v>1509.238791549339</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.493616517677</v>
+        <v>1301.387291343806</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.733317752723</v>
+        <v>1093.626992578852</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.86351363984241</v>
+        <v>379.5706038323315</v>
       </c>
       <c r="C19" t="n">
-        <v>97.86351363984241</v>
+        <v>379.5706038323315</v>
       </c>
       <c r="D19" t="n">
-        <v>53.57314461384927</v>
+        <v>379.5706038323315</v>
       </c>
       <c r="E19" t="n">
-        <v>53.57314461384927</v>
+        <v>379.5706038323315</v>
       </c>
       <c r="F19" t="n">
-        <v>53.57314461384927</v>
+        <v>379.5706038323315</v>
       </c>
       <c r="G19" t="n">
-        <v>53.57314461384927</v>
+        <v>210.5435592425318</v>
       </c>
       <c r="H19" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="I19" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="J19" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="K19" t="n">
-        <v>109.0499203375203</v>
+        <v>105.7528467011321</v>
       </c>
       <c r="L19" t="n">
-        <v>235.5675278813991</v>
+        <v>229.3568204186484</v>
       </c>
       <c r="M19" t="n">
-        <v>379.3517290533882</v>
+        <v>370.0690032423454</v>
       </c>
       <c r="N19" t="n">
-        <v>525.151679716852</v>
+        <v>512.8699812875409</v>
       </c>
       <c r="O19" t="n">
-        <v>643.8052370459121</v>
+        <v>628.7535020058463</v>
       </c>
       <c r="P19" t="n">
-        <v>721.8131711474798</v>
+        <v>704.3911912483013</v>
       </c>
       <c r="Q19" t="n">
-        <v>721.8131711474798</v>
+        <v>704.3911912483013</v>
       </c>
       <c r="R19" t="n">
-        <v>573.3405809892594</v>
+        <v>561.2190686625712</v>
       </c>
       <c r="S19" t="n">
-        <v>573.3405809892594</v>
+        <v>561.2190686625712</v>
       </c>
       <c r="T19" t="n">
-        <v>573.3405809892594</v>
+        <v>561.2190686625712</v>
       </c>
       <c r="U19" t="n">
-        <v>573.3405809892594</v>
+        <v>561.2190686625712</v>
       </c>
       <c r="V19" t="n">
-        <v>318.6560927833725</v>
+        <v>561.2190686625712</v>
       </c>
       <c r="W19" t="n">
-        <v>318.6560927833725</v>
+        <v>561.2190686625712</v>
       </c>
       <c r="X19" t="n">
-        <v>318.6560927833725</v>
+        <v>561.2190686625712</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.86351363984241</v>
+        <v>561.2190686625712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>946.0082482611308</v>
+        <v>1135.120467588123</v>
       </c>
       <c r="C20" t="n">
-        <v>946.0082482611308</v>
+        <v>766.1579506477112</v>
       </c>
       <c r="D20" t="n">
-        <v>946.0082482611308</v>
+        <v>766.1579506477112</v>
       </c>
       <c r="E20" t="n">
-        <v>946.0082482611308</v>
+        <v>380.369698049467</v>
       </c>
       <c r="F20" t="n">
-        <v>535.0223434715233</v>
+        <v>380.369698049467</v>
       </c>
       <c r="G20" t="n">
-        <v>535.0223434715233</v>
+        <v>380.369698049467</v>
       </c>
       <c r="H20" t="n">
-        <v>207.662125770427</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="I20" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="J20" t="n">
-        <v>167.9967420957491</v>
+        <v>163.2684600773918</v>
       </c>
       <c r="K20" t="n">
-        <v>460.232857711057</v>
+        <v>449.9470991626237</v>
       </c>
       <c r="L20" t="n">
-        <v>875.0542279590791</v>
+        <v>857.873928349396</v>
       </c>
       <c r="M20" t="n">
-        <v>1353.229475354095</v>
+        <v>1328.37767037793</v>
       </c>
       <c r="N20" t="n">
-        <v>1824.51010062298</v>
+        <v>1791.86265730319</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.339393288587</v>
+        <v>2184.33074973919</v>
       </c>
       <c r="P20" t="n">
-        <v>2527.910061293531</v>
+        <v>2481.618803655552</v>
       </c>
       <c r="Q20" t="n">
-        <v>2678.657230692464</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R20" t="n">
-        <v>2622.613435915689</v>
+        <v>2568.804059358747</v>
       </c>
       <c r="S20" t="n">
-        <v>2446.067704149875</v>
+        <v>2518.394939184566</v>
       </c>
       <c r="T20" t="n">
-        <v>2227.362297090774</v>
+        <v>2518.394939184566</v>
       </c>
       <c r="U20" t="n">
-        <v>1973.599218935606</v>
+        <v>2264.628294898171</v>
       </c>
       <c r="V20" t="n">
-        <v>1642.536331592036</v>
+        <v>2264.628294898171</v>
       </c>
       <c r="W20" t="n">
-        <v>1332.608088325253</v>
+        <v>1911.859639628056</v>
       </c>
       <c r="X20" t="n">
-        <v>1332.608088325253</v>
+        <v>1911.859639628056</v>
       </c>
       <c r="Y20" t="n">
-        <v>1332.608088325253</v>
+        <v>1521.720307652245</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>969.2732636652215</v>
+        <v>968.4735068678556</v>
       </c>
       <c r="C21" t="n">
-        <v>794.8202343840945</v>
+        <v>794.0204775867286</v>
       </c>
       <c r="D21" t="n">
-        <v>645.8858247228433</v>
+        <v>645.0860679254773</v>
       </c>
       <c r="E21" t="n">
-        <v>486.6483697173878</v>
+        <v>485.8486129200218</v>
       </c>
       <c r="F21" t="n">
-        <v>340.1138117442728</v>
+        <v>339.3140549469068</v>
       </c>
       <c r="G21" t="n">
-        <v>202.1950523733564</v>
+        <v>221.4711034470639</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9134822445222</v>
+        <v>115.7144696158003</v>
       </c>
       <c r="I21" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="J21" t="n">
-        <v>128.0296757109482</v>
+        <v>124.8009736173956</v>
       </c>
       <c r="K21" t="n">
-        <v>258.6215127592874</v>
+        <v>374.9051797885136</v>
       </c>
       <c r="L21" t="n">
-        <v>661.3974395520231</v>
+        <v>635.400292015696</v>
       </c>
       <c r="M21" t="n">
-        <v>1183.397170046311</v>
+        <v>1151.477082766959</v>
       </c>
       <c r="N21" t="n">
-        <v>1734.919693535564</v>
+        <v>1696.919903922447</v>
       </c>
       <c r="O21" t="n">
-        <v>2173.039375606299</v>
+        <v>2129.477846124049</v>
       </c>
       <c r="P21" t="n">
-        <v>2507.665978104125</v>
+        <v>2459.640662045247</v>
       </c>
       <c r="Q21" t="n">
-        <v>2678.657230692464</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="R21" t="n">
-        <v>2627.907029990099</v>
+        <v>2627.647991519842</v>
       </c>
       <c r="S21" t="n">
-        <v>2469.573456084595</v>
+        <v>2468.871403082454</v>
       </c>
       <c r="T21" t="n">
-        <v>2270.660057481537</v>
+        <v>2269.861869802939</v>
       </c>
       <c r="U21" t="n">
-        <v>2042.489864615721</v>
+        <v>2041.690107818355</v>
       </c>
       <c r="V21" t="n">
-        <v>1807.337756383978</v>
+        <v>1806.537999586612</v>
       </c>
       <c r="W21" t="n">
-        <v>1553.100399655776</v>
+        <v>1552.30064285841</v>
       </c>
       <c r="X21" t="n">
-        <v>1345.248899450243</v>
+        <v>1344.449142652878</v>
       </c>
       <c r="Y21" t="n">
-        <v>1137.48860068529</v>
+        <v>1136.688843887924</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>348.3761856941528</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="C22" t="n">
-        <v>348.3761856941528</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="D22" t="n">
-        <v>348.3761856941528</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="E22" t="n">
-        <v>200.4630921117596</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="F22" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="G22" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="H22" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="I22" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="J22" t="n">
-        <v>53.57314461384927</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="K22" t="n">
-        <v>109.0499203375203</v>
+        <v>105.7528467011321</v>
       </c>
       <c r="L22" t="n">
-        <v>235.5675278813991</v>
+        <v>229.3568204186484</v>
       </c>
       <c r="M22" t="n">
-        <v>379.3517290533882</v>
+        <v>370.0690032423454</v>
       </c>
       <c r="N22" t="n">
-        <v>525.151679716852</v>
+        <v>512.8699812875409</v>
       </c>
       <c r="O22" t="n">
-        <v>643.8052370459121</v>
+        <v>628.7535020058463</v>
       </c>
       <c r="P22" t="n">
-        <v>721.8131711474798</v>
+        <v>704.3911912483013</v>
       </c>
       <c r="Q22" t="n">
-        <v>721.8131711474798</v>
+        <v>704.3911912483013</v>
       </c>
       <c r="R22" t="n">
-        <v>603.0606739000397</v>
+        <v>704.3911912483013</v>
       </c>
       <c r="S22" t="n">
-        <v>603.0606739000397</v>
+        <v>704.3911912483013</v>
       </c>
       <c r="T22" t="n">
-        <v>603.0606739000397</v>
+        <v>704.3911912483013</v>
       </c>
       <c r="U22" t="n">
-        <v>603.0606739000397</v>
+        <v>415.2160948486075</v>
       </c>
       <c r="V22" t="n">
-        <v>348.3761856941528</v>
+        <v>160.5316066427206</v>
       </c>
       <c r="W22" t="n">
-        <v>348.3761856941528</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="X22" t="n">
-        <v>348.3761856941528</v>
+        <v>52.55295983039684</v>
       </c>
       <c r="Y22" t="n">
-        <v>348.3761856941528</v>
+        <v>52.55295983039684</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1718.957088916128</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C23" t="n">
-        <v>1718.957088916128</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>1718.957088916128</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>1333.168836317884</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>922.1829315282764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>504.2191234264633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>177.0244034624661</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,10 +6007,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
@@ -6019,22 +6019,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V23" t="n">
         <v>2092.422847177208</v>
       </c>
       <c r="W23" t="n">
-        <v>2092.422847177208</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X23" t="n">
-        <v>1718.957088916128</v>
+        <v>1595.582677879088</v>
       </c>
       <c r="Y23" t="n">
-        <v>1718.957088916128</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6080,31 +6080,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>936.2491605982757</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="C26" t="n">
-        <v>936.2491605982757</v>
+        <v>1447.992776948344</v>
       </c>
       <c r="D26" t="n">
-        <v>577.9834619915252</v>
+        <v>1447.992776948344</v>
       </c>
       <c r="E26" t="n">
-        <v>577.9834619915252</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>166.9975572019177</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>166.9975572019177</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>166.9975572019177</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982757</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y26" t="n">
-        <v>936.2491605982757</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="27">
@@ -6287,49 +6287,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2169.853036130063</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2549.002432452407</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>2538.558708855986</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>2538.558708855986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2538.558708855986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>978.1437682647402</v>
+        <v>1314.387741597311</v>
       </c>
       <c r="C29" t="n">
-        <v>978.1437682647402</v>
+        <v>1314.387741597311</v>
       </c>
       <c r="D29" t="n">
-        <v>978.1437682647402</v>
+        <v>1314.387741597311</v>
       </c>
       <c r="E29" t="n">
-        <v>978.1437682647402</v>
+        <v>928.5994889990666</v>
       </c>
       <c r="F29" t="n">
-        <v>567.1578634751327</v>
+        <v>517.6135842094591</v>
       </c>
       <c r="G29" t="n">
-        <v>149.1940553733195</v>
+        <v>99.64977610764595</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>99.64977610764595</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W29" t="n">
-        <v>1364.743608328862</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X29" t="n">
-        <v>1364.743608328862</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y29" t="n">
-        <v>1364.743608328862</v>
+        <v>1314.387741597311</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2300.159739858537</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2142.411367291068</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X31" t="n">
-        <v>2469.159540120205</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2107.607341885688</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>2107.607341885688</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W32" t="n">
-        <v>2494.20718194981</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X32" t="n">
-        <v>2494.20718194981</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y32" t="n">
-        <v>2494.20718194981</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6782,22 +6782,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,16 +6806,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2294.708047044453</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C34" t="n">
-        <v>2125.771864116546</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y34" t="n">
-        <v>2476.356511874692</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1759.555763042629</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C35" t="n">
-        <v>1759.555763042629</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274027</v>
+        <v>892.3727756203639</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>506.5845230221196</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>506.5845230221196</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>88.62071492030651</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>88.62071492030651</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X35" t="n">
-        <v>1759.555763042629</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y35" t="n">
-        <v>1759.555763042629</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424003</v>
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2251.981069572904</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C38" t="n">
-        <v>2107.607341885688</v>
+        <v>1356.76206130821</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>998.4963627014592</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>612.7081101032149</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>201.7222053136074</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>201.7222053136074</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>201.7222053136074</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X38" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.981069572904</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>464.928886609972</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C41" t="n">
-        <v>464.928886609972</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="D41" t="n">
-        <v>464.928886609972</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>1315.986999352107</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>905.0010945624999</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>487.0372864606868</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>159.8425664966896</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>1881.118241157406</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W41" t="n">
-        <v>1528.349585887292</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X41" t="n">
-        <v>1154.883827626212</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y41" t="n">
-        <v>851.5287266740938</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7590,22 +7590,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>257.1154545468208</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
         <v>53.94298182036445</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2251.981069572904</v>
+        <v>1315.683675137275</v>
       </c>
       <c r="C44" t="n">
-        <v>1883.018552632493</v>
+        <v>1315.683675137275</v>
       </c>
       <c r="D44" t="n">
-        <v>1524.752854025742</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>1138.964601427498</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>727.9786966378904</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036446</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.981069572904</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="45">
@@ -7709,19 +7709,19 @@
         <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036446</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064346</v>
       </c>
       <c r="S46" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T46" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U46" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V46" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635871</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>122.1609165114202</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>129.8481964236088</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
-        <v>127.806478742992</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>375.2833119013997</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>381.7094952808119</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114202</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M15" t="n">
-        <v>392.8337743093848</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N15" t="n">
-        <v>197.5393732613981</v>
+        <v>242.5012113497413</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>53.11324363636973</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.54488675281698</v>
+        <v>144.4639137502128</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>139.9328360295466</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>232.2491796137842</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>20.68382749133789</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>243.3324706909737</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22871,16 +22871,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>63.66198662703599</v>
       </c>
       <c r="H6" t="n">
-        <v>107.6548951417799</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>312.9515861572503</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23038,10 +23038,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>165.1421414445377</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>122.819458116055</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>151.9681874521648</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>338.5273214908784</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I11" t="n">
-        <v>206.9091621893709</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644701</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>106.0023114483784</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703756</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>189.7168855483025</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>103.9968548049501</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2024705022108</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839144</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871616</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2793743957106</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421689</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
-        <v>206.909162189371</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>144.0576027644702</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>23.57176816715642</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>106.4890667268024</v>
+        <v>348.9719891794032</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828964</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703757</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>100.2996914017162</v>
+        <v>17.205282368231</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>4.70078623405945</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022108</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839145</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871617</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.6870224659892</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
-        <v>63.45830508392243</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>149.6049479117266</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>317.9813749726163</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>154.2494468627951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.48335682900641</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.7802744481566</v>
+        <v>175.7859067381893</v>
       </c>
       <c r="T17" t="n">
-        <v>216.5183529885095</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2254473736161</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.52989468754937</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.077487286893621</v>
       </c>
       <c r="S18" t="n">
-        <v>19.05226989675967</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.7680076824792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3169785531093</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.234692619878</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>135.1814325263854</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J19" t="n">
-        <v>45.70732317846585</v>
+        <v>47.10687144748482</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.72366672374993</v>
+        <v>31.38127751273459</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.137544642755898</v>
       </c>
       <c r="S19" t="n">
-        <v>212.2706021837457</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0657678054247</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2822656761991</v>
+        <v>286.2833454356968</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8001683373802</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>154.2494468627951</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>125.8808777657503</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>42.41200788329758</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>19.89866189156848</v>
       </c>
       <c r="H21" t="n">
-        <v>19.05226989675931</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>51.7087200828746</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3169785531093</v>
+        <v>167.3367741439016</v>
       </c>
       <c r="H22" t="n">
-        <v>156.234692619878</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I22" t="n">
-        <v>135.1814325263854</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J22" t="n">
-        <v>45.70732317846585</v>
+        <v>47.10687144748482</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.72366672374993</v>
+        <v>31.38127751273459</v>
       </c>
       <c r="R22" t="n">
-        <v>29.42289198167252</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S22" t="n">
-        <v>212.2706021837457</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0657678054247</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2822656761991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>179.6241379923905</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>30.0807088191806</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>227.1003017907439</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>21.8741453697219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>146.4040614224257</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.00728661712355</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.7983569633721</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>229.6242099469316</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>106.6815899004526</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>16.71182592001271</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853699</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837006968</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>305.4344580541999</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>202.8068813144962</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,13 +25128,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>242.4444433082499</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>192.6397468097667</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>117.6003604759186</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>3.448950818140275</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>222.3429013606636</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.629884986550763</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,10 +25447,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>47.09072741529931</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>85.91638871345617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V43" t="n">
-        <v>50.9968953246362</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>308.1503410717104</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>70.41158511580153</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448612</v>
@@ -25918,13 +25918,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>38.5263015572605</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,22 +26073,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>56.69292621882445</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.70869279</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>509921.8951210084</v>
+        <v>520354.2281896698</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>509921.8951210086</v>
+        <v>520354.2281896696</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821464.24022686</v>
+        <v>811706.5545126027</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821464.2402268602</v>
+        <v>811706.5545126027</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
   </sheetData>
@@ -26322,22 +26322,22 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>138672.1204679982</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>138672.1204679981</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="G2" t="n">
-        <v>230281.9864974933</v>
+        <v>227412.8978274747</v>
       </c>
       <c r="H2" t="n">
-        <v>230281.9864974933</v>
+        <v>227412.8978274747</v>
       </c>
       <c r="I2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="J2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25125.73635942167</v>
+        <v>38628.88112923566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>384098.3586013301</v>
+        <v>359192.6012996554</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4224.969304204687</v>
+        <v>15879.41974556737</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5539.242983422976</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>97805.92659334048</v>
+        <v>91629.18802282485</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>42100.10620798598</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="F4" t="n">
-        <v>42100.10620798598</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="G4" t="n">
-        <v>44772.07825106023</v>
+        <v>44687.72996823888</v>
       </c>
       <c r="H4" t="n">
-        <v>44772.07825106023</v>
+        <v>44687.72996823888</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
         <v>44802.6561755686</v>
@@ -26456,7 +26456,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
         <v>44802.65617556861</v>
@@ -26478,25 +26478,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>16506.80740683334</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>16506.80740683333</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="G5" t="n">
-        <v>48863.64691519557</v>
+        <v>47848.99578308387</v>
       </c>
       <c r="H5" t="n">
-        <v>48863.64691519557</v>
+        <v>47848.99578308387</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38139.58762613964</v>
+        <v>-50357.59824618013</v>
       </c>
       <c r="C6" t="n">
-        <v>42629.84390540812</v>
+        <v>30411.83328536763</v>
       </c>
       <c r="D6" t="n">
-        <v>42629.84390540812</v>
+        <v>30411.83328536762</v>
       </c>
       <c r="E6" t="n">
-        <v>54939.4704937572</v>
+        <v>31726.03702486752</v>
       </c>
       <c r="F6" t="n">
-        <v>80065.20685317882</v>
+        <v>70354.91815410323</v>
       </c>
       <c r="G6" t="n">
-        <v>-247452.0972700926</v>
+        <v>-230629.1673558934</v>
       </c>
       <c r="H6" t="n">
-        <v>136646.2613312375</v>
+        <v>128563.433943762</v>
       </c>
       <c r="I6" t="n">
-        <v>133062.9844694233</v>
+        <v>115340.1202822415</v>
       </c>
       <c r="J6" t="n">
-        <v>74228.0111745219</v>
+        <v>68159.5974287026</v>
       </c>
       <c r="K6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="L6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="M6" t="n">
-        <v>131748.7107902051</v>
+        <v>122461.9570325952</v>
       </c>
       <c r="N6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="O6" t="n">
-        <v>39482.02718028761</v>
+        <v>39590.35200498404</v>
       </c>
       <c r="P6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678938</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678931</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="G3" t="n">
-        <v>373.7640829665196</v>
+        <v>362.7865280725814</v>
       </c>
       <c r="H3" t="n">
-        <v>373.7640829665196</v>
+        <v>362.7865280725814</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170867</v>
@@ -26798,25 +26798,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G4" t="n">
-        <v>669.6643076731159</v>
+        <v>656.9119978799605</v>
       </c>
       <c r="H4" t="n">
-        <v>669.6643076731159</v>
+        <v>656.9119978799605</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678938</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>350.7507002797303</v>
+        <v>327.7652673534561</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.979581250567094</v>
+        <v>14.95713614450523</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.22774507400754</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>406.4222737214492</v>
+        <v>380.7554841776051</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.622965081439816</v>
+        <v>17.37527487459511</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400754</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>406.4222737214492</v>
+        <v>380.7554841776051</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400754</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>406.4222737214492</v>
+        <v>380.7554841776051</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887704</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381034966</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760364</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324496</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>14.59973623455484</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895158</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019315</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841722</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060773</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544831</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679532</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S11" t="n">
-        <v>2.108210886332515</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I12" t="n">
-        <v>1.70429296312544</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246511</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K12" t="n">
-        <v>7.993242550750233</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74790103688215</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>12.54229356430021</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N12" t="n">
-        <v>12.87425075418796</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77742425104022</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277522983</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210549</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605572</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523865</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047529</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>2.934017658281328</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166691</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L13" t="n">
-        <v>6.16985017147137</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988675</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815847965</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150842</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131898</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705196</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473119</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7232238460750037</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09251611130367554</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887675</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381034955</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760339</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324493</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L14" t="n">
-        <v>14.59973623455479</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895153</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N14" t="n">
-        <v>16.5078810301931</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841718</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060768</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544799</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679515</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S14" t="n">
-        <v>2.108210886332509</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318399</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007401288904294042</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498078</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104724</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125435</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246496</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750209</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688212</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54229356430017</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N15" t="n">
-        <v>12.87425075418792</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104019</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277522953</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.31869329921053</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605562</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523836</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467865</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003256610757564526</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994793</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H16" t="n">
-        <v>0.368968660125901</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047526</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J16" t="n">
-        <v>2.934017658281319</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166677</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471351</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988656</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815847946</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150824</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131882</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705186</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473113</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7232238460750015</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815344</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.502569177754852</v>
+        <v>1.458438303809371</v>
       </c>
       <c r="H17" t="n">
-        <v>15.38818659168188</v>
+        <v>14.93623127888773</v>
       </c>
       <c r="I17" t="n">
-        <v>57.92779822539397</v>
+        <v>56.22644270761084</v>
       </c>
       <c r="J17" t="n">
-        <v>127.5286807504709</v>
+        <v>123.7831279879407</v>
       </c>
       <c r="K17" t="n">
-        <v>191.1324340448338</v>
+        <v>185.5188213881915</v>
       </c>
       <c r="L17" t="n">
-        <v>237.1166855185489</v>
+        <v>230.1525026283976</v>
       </c>
       <c r="M17" t="n">
-        <v>263.8380001334468</v>
+        <v>256.0890048137675</v>
       </c>
       <c r="N17" t="n">
-        <v>268.1071748097427</v>
+        <v>260.2327926444659</v>
       </c>
       <c r="O17" t="n">
-        <v>253.1660025484429</v>
+        <v>245.7304467609614</v>
       </c>
       <c r="P17" t="n">
-        <v>216.07132597262</v>
+        <v>209.7252511356675</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.2605672942743</v>
+        <v>157.4949293804944</v>
       </c>
       <c r="R17" t="n">
-        <v>94.38576111214327</v>
+        <v>91.61362510166551</v>
       </c>
       <c r="S17" t="n">
-        <v>34.23979513808872</v>
+        <v>33.23416284805609</v>
       </c>
       <c r="T17" t="n">
-        <v>6.577496575621866</v>
+        <v>6.384313674925527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1202055342203881</v>
+        <v>0.1166750643047497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8039453860034572</v>
+        <v>0.7803332867976279</v>
       </c>
       <c r="H18" t="n">
-        <v>7.764419912191286</v>
+        <v>7.536376743545513</v>
       </c>
       <c r="I18" t="n">
-        <v>27.67969859704886</v>
+        <v>26.8667381638657</v>
       </c>
       <c r="J18" t="n">
-        <v>75.95520859605472</v>
+        <v>73.72438303029696</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8195494582864</v>
+        <v>126.006713245738</v>
       </c>
       <c r="L18" t="n">
-        <v>174.5584049741279</v>
+        <v>169.4315761531429</v>
       </c>
       <c r="M18" t="n">
-        <v>203.7014252167532</v>
+        <v>197.7186577995568</v>
       </c>
       <c r="N18" t="n">
-        <v>209.0927958097325</v>
+        <v>202.9516823412831</v>
       </c>
       <c r="O18" t="n">
-        <v>191.279058572498</v>
+        <v>185.6611395127672</v>
       </c>
       <c r="P18" t="n">
-        <v>153.5183079641163</v>
+        <v>149.0094326341892</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.6229233080904</v>
+        <v>99.60885955683406</v>
       </c>
       <c r="R18" t="n">
-        <v>49.91513545730239</v>
+        <v>48.44911406976853</v>
       </c>
       <c r="S18" t="n">
-        <v>14.93293293738877</v>
+        <v>14.49434855082435</v>
       </c>
       <c r="T18" t="n">
-        <v>3.240464077794636</v>
+        <v>3.145290748100964</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05289114381601694</v>
+        <v>0.05133771623668607</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6740008053494615</v>
+        <v>0.6542052145571139</v>
       </c>
       <c r="H19" t="n">
-        <v>5.99247988756158</v>
+        <v>5.816479089425981</v>
       </c>
       <c r="I19" t="n">
-        <v>20.2690424008729</v>
+        <v>19.67373499777212</v>
       </c>
       <c r="J19" t="n">
-        <v>47.65185693820693</v>
+        <v>46.25230866918795</v>
       </c>
       <c r="K19" t="n">
-        <v>78.30663902151015</v>
+        <v>76.00675129127195</v>
       </c>
       <c r="L19" t="n">
-        <v>100.205537915319</v>
+        <v>97.26247344424584</v>
       </c>
       <c r="M19" t="n">
-        <v>105.6526898785524</v>
+        <v>102.5496410418938</v>
       </c>
       <c r="N19" t="n">
-        <v>103.1405050586136</v>
+        <v>100.1112397876355</v>
       </c>
       <c r="O19" t="n">
-        <v>95.2669501961221</v>
+        <v>92.46893341758192</v>
       </c>
       <c r="P19" t="n">
-        <v>81.51733376699302</v>
+        <v>79.12314704061673</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.43837652794446</v>
+        <v>54.78076573895979</v>
       </c>
       <c r="R19" t="n">
-        <v>30.30552712053123</v>
+        <v>29.41544537454077</v>
       </c>
       <c r="S19" t="n">
-        <v>11.74599585322652</v>
+        <v>11.40101269369079</v>
       </c>
       <c r="T19" t="n">
-        <v>2.879821622856789</v>
+        <v>2.795240462198577</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03676368029178885</v>
+        <v>0.03568392079402444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.502569177754852</v>
+        <v>1.458438303809371</v>
       </c>
       <c r="H20" t="n">
-        <v>15.38818659168188</v>
+        <v>14.93623127888773</v>
       </c>
       <c r="I20" t="n">
-        <v>57.92779822539397</v>
+        <v>56.22644270761084</v>
       </c>
       <c r="J20" t="n">
-        <v>127.5286807504709</v>
+        <v>123.7831279879407</v>
       </c>
       <c r="K20" t="n">
-        <v>191.1324340448338</v>
+        <v>185.5188213881915</v>
       </c>
       <c r="L20" t="n">
-        <v>237.1166855185489</v>
+        <v>230.1525026283976</v>
       </c>
       <c r="M20" t="n">
-        <v>263.8380001334468</v>
+        <v>256.0890048137675</v>
       </c>
       <c r="N20" t="n">
-        <v>268.1071748097427</v>
+        <v>260.2327926444659</v>
       </c>
       <c r="O20" t="n">
-        <v>253.1660025484429</v>
+        <v>245.7304467609614</v>
       </c>
       <c r="P20" t="n">
-        <v>216.07132597262</v>
+        <v>209.7252511356675</v>
       </c>
       <c r="Q20" t="n">
-        <v>162.2605672942743</v>
+        <v>157.4949293804944</v>
       </c>
       <c r="R20" t="n">
-        <v>94.38576111214327</v>
+        <v>91.61362510166551</v>
       </c>
       <c r="S20" t="n">
-        <v>34.23979513808872</v>
+        <v>33.23416284805609</v>
       </c>
       <c r="T20" t="n">
-        <v>6.577496575621866</v>
+        <v>6.384313674925527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1202055342203881</v>
+        <v>0.1166750643047497</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8039453860034572</v>
+        <v>0.7803332867976279</v>
       </c>
       <c r="H21" t="n">
-        <v>7.764419912191286</v>
+        <v>7.536376743545513</v>
       </c>
       <c r="I21" t="n">
-        <v>27.67969859704886</v>
+        <v>26.8667381638657</v>
       </c>
       <c r="J21" t="n">
-        <v>75.95520859605472</v>
+        <v>73.72438303029696</v>
       </c>
       <c r="K21" t="n">
-        <v>129.8195494582864</v>
+        <v>126.006713245738</v>
       </c>
       <c r="L21" t="n">
-        <v>174.5584049741279</v>
+        <v>169.4315761531429</v>
       </c>
       <c r="M21" t="n">
-        <v>203.7014252167532</v>
+        <v>197.7186577995568</v>
       </c>
       <c r="N21" t="n">
-        <v>209.0927958097325</v>
+        <v>202.9516823412831</v>
       </c>
       <c r="O21" t="n">
-        <v>191.279058572498</v>
+        <v>185.6611395127672</v>
       </c>
       <c r="P21" t="n">
-        <v>153.5183079641163</v>
+        <v>149.0094326341892</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.6229233080904</v>
+        <v>99.60885955683406</v>
       </c>
       <c r="R21" t="n">
-        <v>49.91513545730239</v>
+        <v>48.44911406976853</v>
       </c>
       <c r="S21" t="n">
-        <v>14.93293293738877</v>
+        <v>14.49434855082435</v>
       </c>
       <c r="T21" t="n">
-        <v>3.240464077794636</v>
+        <v>3.145290748100964</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05289114381601694</v>
+        <v>0.05133771623668607</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6740008053494615</v>
+        <v>0.6542052145571139</v>
       </c>
       <c r="H22" t="n">
-        <v>5.99247988756158</v>
+        <v>5.816479089425981</v>
       </c>
       <c r="I22" t="n">
-        <v>20.2690424008729</v>
+        <v>19.67373499777212</v>
       </c>
       <c r="J22" t="n">
-        <v>47.65185693820693</v>
+        <v>46.25230866918795</v>
       </c>
       <c r="K22" t="n">
-        <v>78.30663902151015</v>
+        <v>76.00675129127195</v>
       </c>
       <c r="L22" t="n">
-        <v>100.205537915319</v>
+        <v>97.26247344424584</v>
       </c>
       <c r="M22" t="n">
-        <v>105.6526898785524</v>
+        <v>102.5496410418938</v>
       </c>
       <c r="N22" t="n">
-        <v>103.1405050586136</v>
+        <v>100.1112397876355</v>
       </c>
       <c r="O22" t="n">
-        <v>95.2669501961221</v>
+        <v>92.46893341758192</v>
       </c>
       <c r="P22" t="n">
-        <v>81.51733376699302</v>
+        <v>79.12314704061673</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.43837652794446</v>
+        <v>54.78076573895979</v>
       </c>
       <c r="R22" t="n">
-        <v>30.30552712053123</v>
+        <v>29.41544537454077</v>
       </c>
       <c r="S22" t="n">
-        <v>11.74599585322652</v>
+        <v>11.40101269369079</v>
       </c>
       <c r="T22" t="n">
-        <v>2.879821622856789</v>
+        <v>2.795240462198577</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03676368029178885</v>
+        <v>0.03568392079402444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8239578194292</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>196.494535815018</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>235.4123198945113</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>224.4417418455864</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>166.2898937894759</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>103.8696448668208</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>245.6915715436816</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>263.0434990833253</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>193.9407825031299</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75987543178751</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>46.08911889082926</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>50.48273419507656</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O13" t="n">
-        <v>30.45089961919052</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>2.297740302025386</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>115.8239578194291</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L14" t="n">
-        <v>196.494535815018</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M14" t="n">
-        <v>235.4123198945113</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N14" t="n">
-        <v>224.4417418455863</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O14" t="n">
-        <v>166.2898937894758</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>103.8696448668208</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L15" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N15" t="n">
-        <v>79.07191193225269</v>
+        <v>130.751251524742</v>
       </c>
       <c r="O15" t="n">
-        <v>263.0434990833253</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P15" t="n">
-        <v>193.9407825031299</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75987543178749</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M16" t="n">
-        <v>46.08911889082924</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>50.48273419507654</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O16" t="n">
-        <v>30.4508996191905</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P16" t="n">
-        <v>2.29774030202537</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.5793913958584</v>
+        <v>111.8338386333282</v>
       </c>
       <c r="K17" t="n">
-        <v>295.1879955710181</v>
+        <v>289.5743829143756</v>
       </c>
       <c r="L17" t="n">
-        <v>419.0114850990121</v>
+        <v>412.0473022088607</v>
       </c>
       <c r="M17" t="n">
-        <v>483.0053003990065</v>
+        <v>475.2563050793273</v>
       </c>
       <c r="N17" t="n">
-        <v>476.041035625136</v>
+        <v>468.1666534598591</v>
       </c>
       <c r="O17" t="n">
-        <v>403.8679723895016</v>
+        <v>396.43241660202</v>
       </c>
       <c r="P17" t="n">
-        <v>306.6370383888331</v>
+        <v>300.2909635518806</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.2698680797295</v>
+        <v>147.5042301659496</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>75.20861726979686</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>256.443347496506</v>
+        <v>252.6305112839576</v>
       </c>
       <c r="L18" t="n">
-        <v>406.8443704977129</v>
+        <v>401.7175416767279</v>
       </c>
       <c r="M18" t="n">
-        <v>527.2724550447348</v>
+        <v>521.2896876275385</v>
       </c>
       <c r="N18" t="n">
-        <v>557.0934580699527</v>
+        <v>550.9523446015033</v>
       </c>
       <c r="O18" t="n">
-        <v>442.5451334047831</v>
+        <v>436.9272143450523</v>
       </c>
       <c r="P18" t="n">
-        <v>338.0066691897233</v>
+        <v>333.497793859796</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.1860359748859</v>
+        <v>104.0909992210253</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.0371471956273</v>
+        <v>53.7372594653891</v>
       </c>
       <c r="L19" t="n">
-        <v>127.7955631756352</v>
+        <v>124.852498704562</v>
       </c>
       <c r="M19" t="n">
-        <v>145.236566840393</v>
+        <v>142.1335180037344</v>
       </c>
       <c r="N19" t="n">
-        <v>147.2726774378422</v>
+        <v>144.2434121668641</v>
       </c>
       <c r="O19" t="n">
-        <v>119.8520781101618</v>
+        <v>117.0540613316216</v>
       </c>
       <c r="P19" t="n">
-        <v>78.79589303188651</v>
+        <v>76.40170630551022</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>115.5793913958584</v>
+        <v>111.8338386333282</v>
       </c>
       <c r="K20" t="n">
-        <v>295.1879955710181</v>
+        <v>289.5743829143756</v>
       </c>
       <c r="L20" t="n">
-        <v>419.0114850990121</v>
+        <v>412.0473022088607</v>
       </c>
       <c r="M20" t="n">
-        <v>483.0053003990065</v>
+        <v>475.2563050793273</v>
       </c>
       <c r="N20" t="n">
-        <v>476.041035625136</v>
+        <v>468.1666534598591</v>
       </c>
       <c r="O20" t="n">
-        <v>403.8679723895016</v>
+        <v>396.43241660202</v>
       </c>
       <c r="P20" t="n">
-        <v>306.6370383888331</v>
+        <v>300.2909635518806</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.2698680797295</v>
+        <v>147.5042301659496</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>75.20861726979686</v>
+        <v>72.97779170403911</v>
       </c>
       <c r="K21" t="n">
-        <v>131.910946513474</v>
+        <v>252.6305112839576</v>
       </c>
       <c r="L21" t="n">
-        <v>406.8443704977129</v>
+        <v>263.1263759870529</v>
       </c>
       <c r="M21" t="n">
-        <v>527.2724550447348</v>
+        <v>521.2896876275385</v>
       </c>
       <c r="N21" t="n">
-        <v>557.0934580699527</v>
+        <v>550.9523446015033</v>
       </c>
       <c r="O21" t="n">
-        <v>442.5451334047831</v>
+        <v>436.9272143450523</v>
       </c>
       <c r="P21" t="n">
-        <v>338.0066691897233</v>
+        <v>333.497793859796</v>
       </c>
       <c r="Q21" t="n">
-        <v>172.718436957918</v>
+        <v>169.7043732066616</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.0371471956273</v>
+        <v>53.7372594653891</v>
       </c>
       <c r="L22" t="n">
-        <v>127.7955631756352</v>
+        <v>124.852498704562</v>
       </c>
       <c r="M22" t="n">
-        <v>145.236566840393</v>
+        <v>142.1335180037344</v>
       </c>
       <c r="N22" t="n">
-        <v>147.2726774378422</v>
+        <v>144.2434121668641</v>
       </c>
       <c r="O22" t="n">
-        <v>119.8520781101618</v>
+        <v>117.0540613316216</v>
       </c>
       <c r="P22" t="n">
-        <v>78.79589303188651</v>
+        <v>76.40170630551022</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
         <v>297.223041434342</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37636,7 +37636,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,7 +37867,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338903</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
